--- a/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO_REC40.xlsx
+++ b/fuentes/contenidos/grado11/guion02/SolicitudGrafica-MA_11_02_CO_REC40.xlsx
@@ -695,7 +695,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,6 +739,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,7 +1248,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1294,9 +1300,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1418,10 +1421,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1506,6 +1505,23 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -2640,8 +2656,8 @@
   <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="9" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2669,8 +2685,8 @@
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
@@ -2679,16 +2695,16 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="F2" s="69" t="s">
+      <c r="D2" s="74"/>
+      <c r="F2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2696,14 +2712,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="78">
+      <c r="C3" s="75">
         <v>11</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="D3" s="76"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
@@ -2711,19 +2727,19 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="79"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
@@ -2732,20 +2748,20 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="40" t="str">
+      <c r="F5" s="39" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v>Motor del recurso</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="64"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
@@ -2757,20 +2773,20 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="1"/>
@@ -2786,12 +2802,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="75"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2801,7 +2817,7 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -2816,16 +2832,16 @@
       <c r="E9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="62" t="s">
         <v>121</v>
       </c>
       <c r="J9" s="20" t="s">
@@ -2836,207 +2852,207 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="12" customFormat="1" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="str">
+      <c r="A10" s="97" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="22" t="str">
+      <c r="C10" s="99" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M3A</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="14" t="str">
+      <c r="F10" s="100" t="str">
         <f t="shared" ref="F10:F11" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_01_REC40_IMG01.png</v>
       </c>
-      <c r="G10" s="14" t="str">
+      <c r="G10" s="100" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>110 x 110 px</v>
       </c>
-      <c r="H10" s="14" t="str">
+      <c r="H10" s="100" t="str">
         <f t="shared" ref="H10:H11" si="1">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
-      <c r="I10" s="14" t="str">
+      <c r="I10" s="100" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="67" t="s">
+      <c r="J10" s="100"/>
+      <c r="K10" s="101" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="22" t="str">
+      <c r="C11" s="99" t="str">
         <f t="shared" ref="C11" si="2">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M3A</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="14" t="str">
+      <c r="F11" s="100" t="str">
         <f t="shared" si="0"/>
         <v>MA_11_01_REC40_IMG02.png</v>
       </c>
-      <c r="G11" s="14" t="str">
+      <c r="G11" s="100" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>110 x 110 px</v>
       </c>
-      <c r="H11" s="14" t="str">
+      <c r="H11" s="100" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I11" s="14" t="str">
+      <c r="I11" s="100" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="67" t="s">
+      <c r="J11" s="100"/>
+      <c r="K11" s="101" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="22" t="str">
+      <c r="C12" s="99" t="str">
         <f t="shared" ref="C12:C14" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M3A</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="14" t="str">
+      <c r="F12" s="100" t="str">
         <f t="shared" ref="F12:F14" si="4">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE($C$7,"_",$A12,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I12="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_01_REC40_IMG03.png</v>
       </c>
-      <c r="G12" s="14" t="str">
+      <c r="G12" s="100" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>110 x 110 px</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="67" t="s">
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="101" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="22" t="str">
+      <c r="C13" s="99" t="str">
         <f t="shared" si="3"/>
         <v>Recurso M3A</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="14" t="str">
+      <c r="F13" s="100" t="str">
         <f t="shared" si="4"/>
         <v>MA_11_01_REC40_IMG04.png</v>
       </c>
-      <c r="G13" s="14" t="str">
+      <c r="G13" s="100" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>110 x 110 px</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13"/>
-      <c r="K13" s="67" t="s">
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="101" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="97" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="22" t="str">
+      <c r="C14" s="99" t="str">
         <f t="shared" si="3"/>
         <v>Recurso M3A</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="14" t="str">
+      <c r="F14" s="100" t="str">
         <f t="shared" si="4"/>
         <v>MA_11_01_REC40_IMG05.png</v>
       </c>
-      <c r="G14" s="14" t="str">
+      <c r="G14" s="100" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>110 x 110 px</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="67" t="s">
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="101" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="22" t="str">
+      <c r="C15" s="99" t="str">
         <f t="shared" ref="C15" si="5">IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M3A</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="100" t="s">
         <v>146</v>
       </c>
-      <c r="F15" s="14" t="str">
+      <c r="F15" s="100" t="str">
         <f t="shared" ref="F15" si="6">IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),CONCATENATE($C$7,"_",$A15,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I15="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_01_REC40_IMG06.png</v>
       </c>
-      <c r="G15" s="14" t="str">
+      <c r="G15" s="100" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>110 x 110 px</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="67" t="s">
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="101" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4475,539 +4491,539 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="25" customWidth="1"/>
-    <col min="2" max="2" width="11" style="25"/>
-    <col min="3" max="3" width="13.875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="25" customWidth="1"/>
-    <col min="5" max="7" width="11" style="25"/>
-    <col min="8" max="11" width="11" style="25" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="25"/>
+    <col min="1" max="1" width="72.25" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11" style="24"/>
+    <col min="3" max="3" width="13.875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="24" customWidth="1"/>
+    <col min="5" max="7" width="11" style="24"/>
+    <col min="8" max="11" width="11" style="24" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="87" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="35"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="93" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="35"/>
-      <c r="H3" s="25" t="s">
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="34"/>
+      <c r="H3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="H4" s="25" t="s">
+      <c r="F4" s="34"/>
+      <c r="H4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="24">
         <v>1</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="96" t="str">
+      <c r="D5" s="93" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>MA_11_01_CO</v>
       </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="35"/>
-      <c r="H5" s="25" t="s">
+      <c r="E5" s="94"/>
+      <c r="F5" s="34"/>
+      <c r="H5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <v>2</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="H6" s="25" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="H6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <v>3</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="65" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="82" t="str">
+      <c r="D7" s="79" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_CO.xls</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83"/>
-      <c r="H7" s="25" t="s">
+      <c r="E7" s="79"/>
+      <c r="F7" s="80"/>
+      <c r="H7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="24">
         <v>4</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="I8" s="25" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="I8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="24">
         <v>5</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="24">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
-      <c r="I9" s="25" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="I9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="24">
         <v>6</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="24">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
-      <c r="I10" s="25" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="I10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="24">
         <v>7</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="24">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="24">
         <v>8</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="24">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="24">
         <v>9</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="24">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="I13" s="25" t="s">
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="83"/>
+      <c r="I13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="24">
         <v>10</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="24">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="I14" s="25" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="I14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="24">
         <v>11</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="24">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="87" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="J15" s="25">
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="J15" s="24">
         <v>12</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="24">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="29" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="24">
         <v>13</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="24">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="90" t="str">
+      <c r="D17" s="87" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>MA_11_01_REC10</v>
       </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="92"/>
-      <c r="J17" s="25">
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="J17" s="24">
         <v>14</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="24">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="65" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="82" t="str">
+      <c r="D18" s="79" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_REC10.xls</v>
       </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="83"/>
-      <c r="J18" s="25">
+      <c r="E18" s="79"/>
+      <c r="F18" s="80"/>
+      <c r="J18" s="24">
         <v>15</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="24">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="H19" s="25">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="H19" s="24">
         <v>3</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="24">
         <v>16</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="24">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-      <c r="H20" s="25">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="H20" s="24">
         <v>1</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="24">
         <v>9</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="24">
         <v>1</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20" s="24">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H21" s="25" t="str">
+      <c r="H21" s="24" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>MA</v>
       </c>
-      <c r="I21" s="25" t="str">
+      <c r="I21" s="24" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>11</v>
       </c>
-      <c r="J21" s="25" t="str">
+      <c r="J21" s="24" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>01</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="24">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="25">
+      <c r="K22" s="24">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="25">
+      <c r="K23" s="24">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="25">
+      <c r="K24" s="24">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="25">
+      <c r="K25" s="24">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="25">
+      <c r="K26" s="24">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="25">
+      <c r="K27" s="24">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="25">
+      <c r="K28" s="24">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="25">
+      <c r="K29" s="24">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="25">
+      <c r="K30" s="24">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="25">
+      <c r="K31" s="24">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="25">
+      <c r="K32" s="24">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="25">
+      <c r="K33" s="24">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="25">
+      <c r="K34" s="24">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="25">
+      <c r="K35" s="24">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="25">
+      <c r="K36" s="24">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="25">
+      <c r="K37" s="24">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="25">
+      <c r="K38" s="24">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="25">
+      <c r="K39" s="24">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="25">
+      <c r="K40" s="24">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="25">
+      <c r="K41" s="24">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="25">
+      <c r="K42" s="24">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="25">
+      <c r="K43" s="24">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="25">
+      <c r="K44" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="25" t="str">
+      <c r="K45" s="24" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -5202,562 +5218,562 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="25" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="25" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="25"/>
-    <col min="5" max="5" width="11.75" style="25" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="25" customWidth="1"/>
-    <col min="7" max="7" width="11" style="25" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="25" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="25" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="25" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="25" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="25"/>
+    <col min="1" max="1" width="21" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="24"/>
+    <col min="5" max="5" width="11.75" style="24" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="24" customWidth="1"/>
+    <col min="7" max="7" width="11" style="24" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="24" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="24" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="24" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="24" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="44" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45" t="s">
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-    </row>
-    <row r="4" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47" t="s">
+      <c r="G4" s="46"/>
+      <c r="H4" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="47"/>
-    </row>
-    <row r="5" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="J4" s="46"/>
+    </row>
+    <row r="5" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="47" t="s">
+      <c r="G5" s="48"/>
+      <c r="H5" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="49"/>
-    </row>
-    <row r="6" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="J5" s="48"/>
+    </row>
+    <row r="6" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="46" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+    <row r="7" spans="1:11" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47" t="s">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="47"/>
-    </row>
-    <row r="8" spans="1:11" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="J7" s="46"/>
+    </row>
+    <row r="8" spans="1:11" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47" t="s">
+      <c r="G8" s="46"/>
+      <c r="H8" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47" t="s">
+      <c r="G9" s="46"/>
+      <c r="H9" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J9" s="47"/>
-    </row>
-    <row r="10" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="J9" s="46"/>
+    </row>
+    <row r="10" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47" t="s">
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="47"/>
-    </row>
-    <row r="11" spans="1:11" s="46" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="J10" s="46"/>
+    </row>
+    <row r="11" spans="1:11" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47" t="s">
+      <c r="G11" s="46"/>
+      <c r="H11" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J11" s="47"/>
-    </row>
-    <row r="12" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="J11" s="46"/>
+    </row>
+    <row r="12" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47" t="s">
+      <c r="G12" s="46"/>
+      <c r="H12" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="47"/>
+      <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52" t="s">
+      <c r="E13" s="50"/>
+      <c r="F13" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47" t="s">
+      <c r="G13" s="49"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="25" t="s">
+      <c r="J13" s="49"/>
+      <c r="K13" s="24" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52" t="s">
+      <c r="E14" s="50"/>
+      <c r="F14" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47" t="s">
+      <c r="G14" s="49"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="50"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="47" t="s">
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="25" t="s">
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="24" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="48" t="s">
+      <c r="B16" s="51"/>
+      <c r="C16" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="51" t="s">
+      <c r="F16" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="52" t="s">
+      <c r="G16" s="50"/>
+      <c r="H16" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="52" t="s">
+      <c r="I16" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="53" t="s">
+      <c r="J16" s="50"/>
+      <c r="K16" s="52" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="54" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="54" t="s">
+      <c r="I17" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="47"/>
-      <c r="K17" s="55" t="s">
+      <c r="J17" s="46"/>
+      <c r="K17" s="54" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="55" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
     </row>
     <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
     </row>
     <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="8">
